--- a/results/time_series_results/res_trafo/ql_mvar.xlsx
+++ b/results/time_series_results/res_trafo/ql_mvar.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.001177720890213965</v>
+        <v>0.001209870101023143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001069176112843414</v>
+        <v>0.00114206872655772</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0007138040279760053</v>
+        <v>0.0007691035732932533</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005103758389525514</v>
+        <v>0.0005443103157785258</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0002924469579927631</v>
+        <v>0.0003125523303792359</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0002698804281017107</v>
+        <v>0.0002864321847517916</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0002164897276261476</v>
+        <v>0.0002332508008376132</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0001804654474463955</v>
+        <v>0.0001928614520199014</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0002513909583695373</v>
+        <v>0.0002818463527855296</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0002533400850401123</v>
+        <v>0.0002934371670644514</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.000383606697411647</v>
+        <v>0.0004334227419479208</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0004837441074081085</v>
+        <v>0.0005274714729866844</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0007107774785568401</v>
+        <v>0.0007274501302013334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0008566094604772938</v>
+        <v>0.0008642221955395858</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0008683395195747502</v>
+        <v>0.0008714166313774311</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0009166560042702773</v>
+        <v>0.0009164967531828227</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.001060021904935912</v>
+        <v>0.001065742053823484</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.001122042868446247</v>
+        <v>0.00111723812235932</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.000877462814397697</v>
+        <v>0.0008858967070161788</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0005890092461186268</v>
+        <v>0.0006088334168536155</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0004215516889063613</v>
+        <v>0.0004546341943448776</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0006912557158917181</v>
+        <v>0.0007483770808954498</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0009419198742345063</v>
+        <v>0.0009784447324663985</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.001124369988248724</v>
+        <v>0.001161645533852493</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0007564062526424748</v>
+        <v>0.0008135130177837919</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.00059760450525787</v>
+        <v>0.0006612101191751287</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0005846043524484272</v>
+        <v>0.0006484832608359449</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0003672451135845063</v>
+        <v>0.0003980575834485996</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0001893889020319557</v>
+        <v>0.0002086261718476116</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0001815999095244789</v>
+        <v>0.0001973463369371233</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0001467979074916097</v>
+        <v>0.0001605058498970087</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0001522231703863012</v>
+        <v>0.0001674983500913486</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0002167698700308542</v>
+        <v>0.0002419545953391234</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.00020102188806906</v>
+        <v>0.0002351745324547082</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0003915720269804326</v>
+        <v>0.0004535102425435849</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0005224814167085221</v>
+        <v>0.0005802829278220394</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0006741970249550954</v>
+        <v>0.0007105961819273907</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0005847603994150452</v>
+        <v>0.0005961191702328755</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0006807942274849807</v>
+        <v>0.0006839268020522697</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.00091809632440732</v>
+        <v>0.000887647502744936</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.001313351362999113</v>
+        <v>0.001258564240630436</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.001264717011277153</v>
+        <v>0.001309257098162491</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.001060949893789984</v>
+        <v>0.001065451175209257</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.000818374115886358</v>
+        <v>0.0008460880316755008</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0008664877403292205</v>
+        <v>0.00088861938832944</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0006625798407383237</v>
+        <v>0.000695757669146568</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0008175038074222928</v>
+        <v>0.0008448288363000437</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0008942736354530741</v>
+        <v>0.0009179776280328015</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0005616938248386086</v>
+        <v>0.0005997591256797184</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0006114769398518932</v>
+        <v>0.0006631114819445894</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0005528435181523595</v>
+        <v>0.0005935847732933298</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0004488273221593355</v>
+        <v>0.0004829089898932149</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0003110634755559341</v>
+        <v>0.0003333908218350586</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0002967215253798801</v>
+        <v>0.0003149853339310723</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0002028825518030128</v>
+        <v>0.0002188914337447057</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0001603122736569282</v>
+        <v>0.0001755666877240247</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0002047263828733269</v>
+        <v>0.0002282985956941312</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0002008350366177796</v>
+        <v>0.0002341929065057553</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0004929833250997893</v>
+        <v>0.0005497990173594283</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0005662430429678645</v>
+        <v>0.0006165949937114255</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0006253771223796759</v>
+        <v>0.0006462282636803124</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.000523969227466397</v>
+        <v>0.0005154862094513928</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0005528671943383491</v>
+        <v>0.0005599685637195338</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0006657014585363908</v>
+        <v>0.0006575735846000071</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.001087694367719956</v>
+        <v>0.001087219368712034</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.001154561135812711</v>
+        <v>0.001214178182921468</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0008317303958290369</v>
+        <v>0.0008565591782772556</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0006985193933095263</v>
+        <v>0.0007296907138250701</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0004869442034387656</v>
+        <v>0.0005192940451541218</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0004127718333637758</v>
+        <v>0.0004477095032949067</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0004308461547605822</v>
+        <v>0.0004697923471806038</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.000639326397064815</v>
+        <v>0.0006875750956564387</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0004910309763457242</v>
+        <v>0.0005318699791777223</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0004332081868003245</v>
+        <v>0.0004943450858052988</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0004144367183822765</v>
+        <v>0.0004566098003499237</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0002977292897072937</v>
+        <v>0.0003215737241698026</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0002453749367945289</v>
+        <v>0.0002630099278230543</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0002296780941071309</v>
+        <v>0.00024402277724249</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.000202134133337264</v>
+        <v>0.0002154673051419469</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0002202556735029012</v>
+        <v>0.000243811897545524</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.000219879519915473</v>
+        <v>0.0002496982355055287</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0002107754367397287</v>
+        <v>0.0002467072415265701</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0003306583029841043</v>
+        <v>0.000389416339109095</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0003628271346084675</v>
+        <v>0.0003918195115921834</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0003110791169848512</v>
+        <v>0.0003214412223086164</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0002602535542384295</v>
+        <v>0.0002708306195840487</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0003750813575199833</v>
+        <v>0.0003697482696592563</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0006855403375302824</v>
+        <v>0.0006930008033326617</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0008487511713747181</v>
+        <v>0.0008819713373214595</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.000788280528945387</v>
+        <v>0.0008593496064155</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0005534155096597918</v>
+        <v>0.0005997895225979717</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0005704994333991536</v>
+        <v>0.0006374273493954166</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0006635606296919499</v>
+        <v>0.0007311490020359725</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0007909042158573852</v>
+        <v>0.000846621858431363</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0008261949215739292</v>
+        <v>0.0008974901263244985</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.000816383892398933</v>
+        <v>0.000876493532477202</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0009493999913352804</v>
+        <v>0.001019935608367035</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0007172485302764638</v>
+        <v>0.0008139971331205618</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0006464071144797306</v>
+        <v>0.0007005378412318717</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0004211831768595358</v>
+        <v>0.0004596115395729041</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.000375662699897311</v>
+        <v>0.0004122449730184809</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0003090273480646158</v>
+        <v>0.0003359992594261377</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.000257684954751289</v>
+        <v>0.0002783189264721105</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0001863707599775463</v>
+        <v>0.0002078288606201864</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0002351880002137402</v>
+        <v>0.0002672706845259481</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0002610485372663882</v>
+        <v>0.0002976031836855013</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0003980398391816593</v>
+        <v>0.0004614842617990268</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0003535909093707252</v>
+        <v>0.0003728608402367509</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.000401017053056774</v>
+        <v>0.0004238742357455909</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0003402212886559765</v>
+        <v>0.0003441677649483575</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0006683145917566879</v>
+        <v>0.0006587464695080991</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0006999670443758707</v>
+        <v>0.000692370947229258</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0008603445405241092</v>
+        <v>0.0008834390149461708</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0008402497964716272</v>
+        <v>0.0008417541370132203</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0009203375854139731</v>
+        <v>0.0009357292379858061</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.001190477766089661</v>
+        <v>0.001236990275363618</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.001205399386982609</v>
+        <v>0.001245011811541004</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.001300401141114194</v>
+        <v>0.001360974145457751</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.00129125014981962</v>
+        <v>0.001343357746723251</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.001293650926187537</v>
+        <v>0.001341718594467346</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.0008994575096580574</v>
+        <v>0.0009683402462796389</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0007269364100735423</v>
+        <v>0.0008008576997841615</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0005606176621314489</v>
+        <v>0.0006144243891275155</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0004196220712922357</v>
+        <v>0.0004591677030771745</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0003604805986726438</v>
+        <v>0.000395569303395276</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0003205694487780104</v>
+        <v>0.0003530303105728425</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0002591101699070407</v>
+        <v>0.0002795611935236132</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0002281527758621113</v>
+        <v>0.0002552383909018678</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0002596606849651145</v>
+        <v>0.0002960971889264807</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.000290076970068154</v>
+        <v>0.0003368973864373414</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0005538853000190867</v>
+        <v>0.0006169160573462774</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.0004680562607524434</v>
+        <v>0.0004900898060195922</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.0008547313362385216</v>
+        <v>0.0009025912727890668</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0008071830225070978</v>
+        <v>0.0008415068062586697</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.001044679667297318</v>
+        <v>0.00106602965348165</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.001225583552447646</v>
+        <v>0.001232976180784171</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.001451818942116507</v>
+        <v>0.001466138339613843</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.00169360835758098</v>
+        <v>0.001727891320172443</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.001068022588031445</v>
+        <v>0.001099498542571407</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.001108687181290824</v>
+        <v>0.001150836361371612</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.001196046295527905</v>
+        <v>0.001234608907189773</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.001653116615660822</v>
+        <v>0.001706911405624078</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.001636609397177512</v>
+        <v>0.001699884896089689</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.001611869565623347</v>
+        <v>0.001655677862302271</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.001367398721494061</v>
+        <v>0.001424290027008225</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.001056837497882661</v>
+        <v>0.001136550402657973</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.0008895500967922654</v>
+        <v>0.0009578860280353967</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.0004512705413079532</v>
+        <v>0.0004768928269269553</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.0004005277655438456</v>
+        <v>0.000428677189765185</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.0002881708098952455</v>
+        <v>0.0003092578137391415</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.0002439247439738922</v>
+        <v>0.000259369610317044</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.0001986752856363278</v>
+        <v>0.000215712197600978</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.0002468993023608373</v>
+        <v>0.0002686669243190769</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.0002577046675626588</v>
+        <v>0.0002889262648406235</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.0004921813760717679</v>
+        <v>0.0005505264237223462</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.0006145674309888777</v>
+        <v>0.0006710014007376332</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.0006863456884021582</v>
+        <v>0.000743422500837811</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.0006460121495744954</v>
+        <v>0.0006942086408492192</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.0006682034496009392</v>
+        <v>0.0007099613451659135</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0007051562732363204</v>
+        <v>0.0007307821307596957</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.001041566094900665</v>
+        <v>0.001104517473911985</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.001174163215165223</v>
+        <v>0.001249349501514807</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.0008013819531919431</v>
+        <v>0.000871110454606373</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.0008537653684442457</v>
+        <v>0.0009227604675094234</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.001015017516049471</v>
+        <v>0.001042199291598347</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.00137189046895912</v>
+        <v>0.001403389775282569</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.001263319483466526</v>
+        <v>0.001287613496999154</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.001428515298440168</v>
+        <v>0.001429777484846873</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.001169143780180009</v>
+        <v>0.001184982246619656</v>
       </c>
     </row>
   </sheetData>

--- a/results/time_series_results/res_trafo/ql_mvar.xlsx
+++ b/results/time_series_results/res_trafo/ql_mvar.xlsx
@@ -366,1367 +366,1613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.001209870101023143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.0001866143244665274</v>
+      </c>
+      <c r="C2">
+        <v>0.0006784033307121599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00114206872655772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.0001769125920954934</v>
+      </c>
+      <c r="C3">
+        <v>0.000518686346051905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0007691035732932533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.0001756149314759543</v>
+      </c>
+      <c r="C4">
+        <v>0.0005438282647367628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005443103157785258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.0001611557605176888</v>
+      </c>
+      <c r="C5">
+        <v>0.0005761377135447255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0003125523303792359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.0001773555063437633</v>
+      </c>
+      <c r="C6">
+        <v>0.0004586560287062964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0002864321847517916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.0001570390224871167</v>
+      </c>
+      <c r="C7">
+        <v>0.0004651327601426882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0002332508008376132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.0001732802003836865</v>
+      </c>
+      <c r="C8">
+        <v>0.0004990567752265298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0001928614520199014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.0001677948467941154</v>
+      </c>
+      <c r="C9">
+        <v>0.0004235540261989133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0002818463527855296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.0002877670688652272</v>
+      </c>
+      <c r="C10">
+        <v>0.0002305093127418747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0002934371670644514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.0003611655431817509</v>
+      </c>
+      <c r="C11">
+        <v>0.0003450952446643428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0004334227419479208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.0003711783672842749</v>
+      </c>
+      <c r="C12">
+        <v>0.0005929916481957273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0005274714729866844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.0003406981341376164</v>
+      </c>
+      <c r="C13">
+        <v>0.0007098771748316429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0007274501302013334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0005822103536206972</v>
+      </c>
+      <c r="C14">
+        <v>0.0005537074284029317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0008642221955395858</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.001384360551590009</v>
+      </c>
+      <c r="C15">
+        <v>0.0005216205189777813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0008714166313774311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.00135224768118192</v>
+      </c>
+      <c r="C16">
+        <v>0.0006047374757888304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0009164967531828227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.001411096192245776</v>
+      </c>
+      <c r="C17">
+        <v>0.000625682933762628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.001065742053823484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.001250930879703423</v>
+      </c>
+      <c r="C18">
+        <v>0.000665805750027385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.00111723812235932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.0009045051858836837</v>
+      </c>
+      <c r="C19">
+        <v>0.0006180465906521198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0008858967070161788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.0006517176760017089</v>
+      </c>
+      <c r="C20">
+        <v>0.0006299360960946567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0006088334168536155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.0004597203794808686</v>
+      </c>
+      <c r="C21">
+        <v>0.0005191298190408259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0004546341943448776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.0004543665988213888</v>
+      </c>
+      <c r="C22">
+        <v>0.0006387700824596481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0007483770808954498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.0004442364452080088</v>
+      </c>
+      <c r="C23">
+        <v>0.001311586894844486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0009784447324663985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.0002554081258799213</v>
+      </c>
+      <c r="C24">
+        <v>0.001285897544434131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.001161645533852493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.0001651393505329782</v>
+      </c>
+      <c r="C25">
+        <v>0.001011762640663614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0008135130177837919</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.0001860182676979319</v>
+      </c>
+      <c r="C26">
+        <v>0.0008343559947501023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0006612101191751287</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.0001816750507691006</v>
+      </c>
+      <c r="C27">
+        <v>0.0006347330770442158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0006484832608359449</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0001763876856255137</v>
+      </c>
+      <c r="C28">
+        <v>0.0006275071364879254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0003980575834485996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.0001739655176618268</v>
+      </c>
+      <c r="C29">
+        <v>0.0005675725183311949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0002086261718476116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.0001756427512572363</v>
+      </c>
+      <c r="C30">
+        <v>0.0005008559158607017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0001973463369371233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.0001635135865300856</v>
+      </c>
+      <c r="C31">
+        <v>0.0005295704140806272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0001605058498970087</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.000190931238486137</v>
+      </c>
+      <c r="C32">
+        <v>0.0004650672204416072</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0001674983500913486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.0001852813378915409</v>
+      </c>
+      <c r="C33">
+        <v>0.0004391791656876954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0002419545953391234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.0003149636964602008</v>
+      </c>
+      <c r="C34">
+        <v>0.0002437663510457626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0002351745324547082</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.0004358728395722614</v>
+      </c>
+      <c r="C35">
+        <v>0.0002814708957708544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0004535102425435849</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.0004188358817108698</v>
+      </c>
+      <c r="C36">
+        <v>0.0004736097569012312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0005802829278220394</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.0003930726949045115</v>
+      </c>
+      <c r="C37">
+        <v>0.0005337038057110213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0007105961819273907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.0005742266873109232</v>
+      </c>
+      <c r="C38">
+        <v>0.0003373835120827705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0005961191702328755</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001197327564143935</v>
+      </c>
+      <c r="C39">
+        <v>0.0002352200707855182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0006839268020522697</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.001563147101382518</v>
+      </c>
+      <c r="C40">
+        <v>0.0005297634034166585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.000887647502744936</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.001251215468363803</v>
+      </c>
+      <c r="C41">
+        <v>0.000676292272646237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.001258564240630436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.001287831405077177</v>
+      </c>
+      <c r="C42">
+        <v>0.0006442543415569602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.001309257098162491</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.000824128997580172</v>
+      </c>
+      <c r="C43">
+        <v>0.0009578079323249249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.001065451175209257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.0005495966018006284</v>
+      </c>
+      <c r="C44">
+        <v>0.001182324789207808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0008460880316755008</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.0004665938398915354</v>
+      </c>
+      <c r="C45">
+        <v>0.0005945706681607971</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.00088861938832944</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.0004685798705879736</v>
+      </c>
+      <c r="C46">
+        <v>0.001073398666840061</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.000695757669146568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.0004735190256693213</v>
+      </c>
+      <c r="C47">
+        <v>0.001626664484423373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0008448288363000437</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.0002343948185100564</v>
+      </c>
+      <c r="C48">
+        <v>0.001661655801554245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0009179776280328015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0001688741907658729</v>
+      </c>
+      <c r="C49">
+        <v>0.001292163147520069</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0005997591256797184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.0001881521438076219</v>
+      </c>
+      <c r="C50">
+        <v>0.0007526602753829552</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0006631114819445894</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.0001872970486023691</v>
+      </c>
+      <c r="C51">
+        <v>0.0006307477213837931</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0005935847732933298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.0001987416925095561</v>
+      </c>
+      <c r="C52">
+        <v>0.0007672757152229685</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0004829089898932149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.0001696044948649285</v>
+      </c>
+      <c r="C53">
+        <v>0.0007247396943421847</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0003333908218350586</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.0001739926497284586</v>
+      </c>
+      <c r="C54">
+        <v>0.0006338638776149127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0003149853339310723</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.0001652726585427881</v>
+      </c>
+      <c r="C55">
+        <v>0.0006291122492598472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0002188914337447057</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0001744318120434409</v>
+      </c>
+      <c r="C56">
+        <v>0.0005717472122505744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0001755666877240247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.0001645516248995765</v>
+      </c>
+      <c r="C57">
+        <v>0.0003904002903735548</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0002282985956941312</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.0002168873446153931</v>
+      </c>
+      <c r="C58">
+        <v>0.0002883961489269187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0002341929065057553</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.0003501971779461603</v>
+      </c>
+      <c r="C59">
+        <v>0.0003186367429763655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0005497990173594283</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.0004191942895252066</v>
+      </c>
+      <c r="C60">
+        <v>0.0003635057630461952</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0006165949937114255</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.0004943645731029366</v>
+      </c>
+      <c r="C61">
+        <v>0.0005200732869451784</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0006462282636803124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.0008371965893977065</v>
+      </c>
+      <c r="C62">
+        <v>0.0004516288325042833</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0005154862094513928</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.001020258401581102</v>
+      </c>
+      <c r="C63">
+        <v>0.0002905190841202079</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0005599685637195338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.001553121674967043</v>
+      </c>
+      <c r="C64">
+        <v>0.0003471993730599858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0006575735846000071</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.00134604025799689</v>
+      </c>
+      <c r="C65">
+        <v>0.0006182925060879163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.001087219368712034</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.001207975656809341</v>
+      </c>
+      <c r="C66">
+        <v>0.000500237976089196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.001214178182921468</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.0007074987345002642</v>
+      </c>
+      <c r="C67">
+        <v>0.0007454342027387218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0008565591782772556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0004712640303161515</v>
+      </c>
+      <c r="C68">
+        <v>0.001227928142999143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0007296907138250701</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.0004547360130197043</v>
+      </c>
+      <c r="C69">
+        <v>0.001243927555454175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0005192940451541218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.0004107325846176934</v>
+      </c>
+      <c r="C70">
+        <v>0.001751409750822846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0004477095032949067</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.0004330979544125182</v>
+      </c>
+      <c r="C71">
+        <v>0.002197906548790982</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0004697923471806038</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.0002680779829698254</v>
+      </c>
+      <c r="C72">
+        <v>0.001719940658645837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0006875750956564387</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.0001672028124314239</v>
+      </c>
+      <c r="C73">
+        <v>0.001304827151585506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0005318699791777223</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.0001785206505981819</v>
+      </c>
+      <c r="C74">
+        <v>0.0007540109105885315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0004943450858052988</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.0001854226831936332</v>
+      </c>
+      <c r="C75">
+        <v>0.0005974889743603218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0004566098003499237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0001822919564717117</v>
+      </c>
+      <c r="C76">
+        <v>0.0006330286301740912</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0003215737241698026</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.0001736086003959758</v>
+      </c>
+      <c r="C77">
+        <v>0.0006799599746200066</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0002630099278230543</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.0001761111168361539</v>
+      </c>
+      <c r="C78">
+        <v>0.0004794296481692611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.00024402277724249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0001500079211694281</v>
+      </c>
+      <c r="C79">
+        <v>0.0004917210778988372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0002154673051419469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.0001639118573321051</v>
+      </c>
+      <c r="C80">
+        <v>0.0004492167116229395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.000243811897545524</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0001541343891356674</v>
+      </c>
+      <c r="C81">
+        <v>0.0004064096778761306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0002496982355055287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0004037389267891662</v>
+      </c>
+      <c r="C82">
+        <v>0.0002677016846212066</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0002467072415265701</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0004833061646497369</v>
+      </c>
+      <c r="C83">
+        <v>0.0004199041402292759</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.000389416339109095</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.0004624093374867943</v>
+      </c>
+      <c r="C84">
+        <v>0.0004049074293605436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0003918195115921834</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0005797743356357157</v>
+      </c>
+      <c r="C85">
+        <v>0.0006149392998797683</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0003214412223086164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.0007998561698737845</v>
+      </c>
+      <c r="C86">
+        <v>0.0007803391007290932</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0002708306195840487</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.001576370140569733</v>
+      </c>
+      <c r="C87">
+        <v>0.0008552957657955622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0003697482696592563</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.001352550477682453</v>
+      </c>
+      <c r="C88">
+        <v>0.0008984028917297009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0006930008033326617</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001206257729088024</v>
+      </c>
+      <c r="C89">
+        <v>0.0007208948334617715</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0008819713373214595</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.001242422292232594</v>
+      </c>
+      <c r="C90">
+        <v>0.0005826669354226865</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0008593496064155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0009734608210606075</v>
+      </c>
+      <c r="C91">
+        <v>0.0006113877381376466</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0005997895225979717</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006721061966847256</v>
+      </c>
+      <c r="C92">
+        <v>0.0008640203231814847</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0006374273493954166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.0005538689100094562</v>
+      </c>
+      <c r="C93">
+        <v>0.0009926776952321362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0007311490020359725</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0006001813512963881</v>
+      </c>
+      <c r="C94">
+        <v>0.001346281755735749</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.000846621858431363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0005045436709850184</v>
+      </c>
+      <c r="C95">
+        <v>0.001321031788194334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0008974901263244985</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.0005444722169705938</v>
+      </c>
+      <c r="C96">
+        <v>0.001202756961366014</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.000876493532477202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.0006729744183669817</v>
+      </c>
+      <c r="C97">
+        <v>0.0009349069559205698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.001019935608367035</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0005197105357512206</v>
+      </c>
+      <c r="C98">
+        <v>0.0006585655232536657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0008139971331205618</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.000417900320542836</v>
+      </c>
+      <c r="C99">
+        <v>0.0007423995739040811</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0007005378412318717</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.0002512323223691699</v>
+      </c>
+      <c r="C100">
+        <v>0.0006142195601043258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0004596115395729041</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.0001765807289605623</v>
+      </c>
+      <c r="C101">
+        <v>0.0006271577776203376</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0004122449730184809</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>0.0001771062135621285</v>
+      </c>
+      <c r="C102">
+        <v>0.0006650171210358011</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0003359992594261377</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>0.0001641517541313196</v>
+      </c>
+      <c r="C103">
+        <v>0.0006066599058554452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0002783189264721105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>0.0001638588233641365</v>
+      </c>
+      <c r="C104">
+        <v>0.0005342092247282504</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0002078288606201864</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>0.0001577689393727742</v>
+      </c>
+      <c r="C105">
+        <v>0.000395776201312073</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0002672706845259481</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>0.0002602249500542989</v>
+      </c>
+      <c r="C106">
+        <v>0.0003310291709542074</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0002976031836855013</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>0.0003711489105444663</v>
+      </c>
+      <c r="C107">
+        <v>0.0003154542140397806</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0004614842617990268</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>0.0004948619036250113</v>
+      </c>
+      <c r="C108">
+        <v>0.0003459878648333877</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0003728608402367509</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>0.0005246224139788049</v>
+      </c>
+      <c r="C109">
+        <v>0.0006120179701437506</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0004238742357455909</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>0.000631509303940713</v>
+      </c>
+      <c r="C110">
+        <v>0.0006821225396026948</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0003441677649483575</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>0.001317388063170516</v>
+      </c>
+      <c r="C111">
+        <v>0.0004762963263673118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0006587464695080991</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>0.001366776086648983</v>
+      </c>
+      <c r="C112">
+        <v>0.0005030347229649441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.000692370947229258</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>0.001243732130003035</v>
+      </c>
+      <c r="C113">
+        <v>0.0007739284582103678</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0008834390149461708</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>0.001340268134283798</v>
+      </c>
+      <c r="C114">
+        <v>0.0006083143969981206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0008417541370132203</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>0.0006913383721367088</v>
+      </c>
+      <c r="C115">
+        <v>0.0006441001304790736</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0009357292379858061</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>0.0007120328057502022</v>
+      </c>
+      <c r="C116">
+        <v>0.0007756174038790961</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.001236990275363618</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>0.0006597013168689859</v>
+      </c>
+      <c r="C117">
+        <v>0.001039018450174576</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.001245011811541004</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>0.0005057375623482798</v>
+      </c>
+      <c r="C118">
+        <v>0.0009799637511914466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.001360974145457751</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>0.000444537753641366</v>
+      </c>
+      <c r="C119">
+        <v>0.0009113354846322697</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.001343357746723251</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>0.000434348848609156</v>
+      </c>
+      <c r="C120">
+        <v>0.0008142572531700731</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.001341718594467346</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>0.0005089153131188592</v>
+      </c>
+      <c r="C121">
+        <v>0.0007062962833996236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.0009683402462796389</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>0.0003393030019630574</v>
+      </c>
+      <c r="C122">
+        <v>0.0005446014443081645</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0008008576997841615</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>0.0002660854629272186</v>
+      </c>
+      <c r="C123">
+        <v>0.0004308819055674331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0006144243891275155</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>0.0001075812644147288</v>
+      </c>
+      <c r="C124">
+        <v>0.0004540835414170083</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0004591677030771745</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>0.0001013248766582494</v>
+      </c>
+      <c r="C125">
+        <v>0.000395080680849465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.000395569303395276</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>9.831913233398709E-05</v>
+      </c>
+      <c r="C126">
+        <v>0.000333679497981418</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0003530303105728425</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>9.986816047824027E-05</v>
+      </c>
+      <c r="C127">
+        <v>0.0003687804368503684</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0002795611935236132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>9.66396292112816E-05</v>
+      </c>
+      <c r="C128">
+        <v>0.0003652512334188545</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0002552383909018678</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>9.941250199620885E-05</v>
+      </c>
+      <c r="C129">
+        <v>0.0002746735531717329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0002960971889264807</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>0.0002096333737210569</v>
+      </c>
+      <c r="C130">
+        <v>0.0002270468202492519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0003368973864373414</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>0.0002546577537159305</v>
+      </c>
+      <c r="C131">
+        <v>0.0002500691386804665</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0006169160573462774</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>0.0003210811479633445</v>
+      </c>
+      <c r="C132">
+        <v>0.000275705318200587</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.0004900898060195922</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>0.000364594920645431</v>
+      </c>
+      <c r="C133">
+        <v>0.0003289267502673855</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.0009025912727890668</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>0.0008855538521491659</v>
+      </c>
+      <c r="C134">
+        <v>0.0003227363466392437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0008415068062586697</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>0.001673600435789662</v>
+      </c>
+      <c r="C135">
+        <v>0.000236014323898053</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.00106602965348165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>0.001504320597366486</v>
+      </c>
+      <c r="C136">
+        <v>0.0005935490645965387</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.001232976180784171</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>0.001396331357833718</v>
+      </c>
+      <c r="C137">
+        <v>0.001064182458789758</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.001466138339613843</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>0.001314613059897958</v>
+      </c>
+      <c r="C138">
+        <v>0.0007594935322943722</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.001727891320172443</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>0.0006588170307541824</v>
+      </c>
+      <c r="C139">
+        <v>0.0005179907949693025</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.001099498542571407</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>0.0005190016939313287</v>
+      </c>
+      <c r="C140">
+        <v>0.0005275797886116424</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.001150836361371612</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>0.0004578532614456845</v>
+      </c>
+      <c r="C141">
+        <v>0.0005502441035293909</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.001234608907189773</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>0.000536904356474183</v>
+      </c>
+      <c r="C142">
+        <v>0.0007667934130416304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.001706911405624078</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>0.0005190495530089106</v>
+      </c>
+      <c r="C143">
+        <v>0.0009131133424698664</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.001699884896089689</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>0.0005147329024577438</v>
+      </c>
+      <c r="C144">
+        <v>0.001060178382560764</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.001655677862302271</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>0.0006134192915754309</v>
+      </c>
+      <c r="C145">
+        <v>0.0009143558027884151</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.001424290027008225</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>0.001136550402657973</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>0.0009578860280353967</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>0.0004768928269269553</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>0.000428677189765185</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>0.0003092578137391415</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>0.000259369610317044</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>0.000215712197600978</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>0.0002686669243190769</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>0.0002889262648406235</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>0.0005505264237223462</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>0.0006710014007376332</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>0.000743422500837811</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>0.0006942086408492192</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>0.0007099613451659135</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>0.0007307821307596957</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>0.001104517473911985</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>0.001249349501514807</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>0.000871110454606373</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>0.0009227604675094234</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>0.001042199291598347</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>0.001403389775282569</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>0.001287613496999154</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>0.001429777484846873</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>0.001184982246619656</v>
+        <v>0.0004847690034323951</v>
+      </c>
+      <c r="C146">
+        <v>0.0007944150287501708</v>
       </c>
     </row>
   </sheetData>
